--- a/Feature-Analysis/Resize Feature/s_23_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_23_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.58807870373</v>
+        <v>738157.58807870373</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.58877314813</v>
+        <v>738157.58877314813</v>
       </c>
       <c r="C3" s="0">
         <v>59.999996423721313</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.58921296301</v>
+        <v>738157.58921296301</v>
       </c>
       <c r="C4" s="0">
         <v>98.000001534819603</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.58921296301</v>
+        <v>738157.58921296301</v>
       </c>
       <c r="C5" s="0">
         <v>98.000001534819603</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.58984953701</v>
+        <v>738157.58984953701</v>
       </c>
       <c r="C6" s="0">
         <v>152.99999490380287</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.5901851852</v>
+        <v>738157.5901851852</v>
       </c>
       <c r="C7" s="0">
         <v>181.9999985396862</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.59054398153</v>
+        <v>738157.59054398153</v>
       </c>
       <c r="C8" s="0">
         <v>213.00000138580799</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.5908796296</v>
+        <v>738157.5908796296</v>
       </c>
       <c r="C9" s="0">
         <v>241.99999496340752</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.5912268518</v>
+        <v>738157.5912268518</v>
       </c>
       <c r="C10" s="0">
         <v>271.99999317526817</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.59157407412</v>
+        <v>738157.59157407412</v>
       </c>
       <c r="C11" s="0">
         <v>302.00000144541264</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.59192129632</v>
+        <v>738157.59192129632</v>
       </c>
       <c r="C12" s="0">
         <v>331.99999965727329</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.59225694439</v>
+        <v>738157.59225694439</v>
       </c>
       <c r="C13" s="0">
         <v>360.99999323487282</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.59262731485</v>
+        <v>738157.59262731485</v>
       </c>
       <c r="C14" s="0">
         <v>393.00000071525574</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.59295138891</v>
+        <v>738157.59295138891</v>
       </c>
       <c r="C15" s="0">
         <v>420.99999971687794</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.59328703699</v>
+        <v>738157.59328703699</v>
       </c>
       <c r="C16" s="0">
         <v>449.99999329447746</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.59365740744</v>
+        <v>738157.59365740744</v>
       </c>
       <c r="C17" s="0">
         <v>482.00000077486038</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.59399305552</v>
+        <v>738157.59399305552</v>
       </c>
       <c r="C18" s="0">
         <v>510.99999435245991</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.59436342597</v>
+        <v>738157.59436342597</v>
       </c>
       <c r="C19" s="0">
         <v>543.00000183284283</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.59469907405</v>
+        <v>738157.59469907405</v>
       </c>
       <c r="C20" s="0">
         <v>571.99999541044235</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.59504629625</v>
+        <v>738157.59504629625</v>
       </c>
       <c r="C21" s="0">
         <v>601.99999362230301</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.59569444449</v>
+        <v>738157.59569444449</v>
       </c>
       <c r="C22" s="0">
         <v>658.00000168383121</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.59604166669</v>
+        <v>738157.59604166669</v>
       </c>
       <c r="C23" s="0">
         <v>687.99999989569187</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.59641203703</v>
+        <v>738157.59641203703</v>
       </c>
       <c r="C24" s="0">
         <v>719.99999731779099</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.59675925924</v>
+        <v>738157.59675925924</v>
       </c>
       <c r="C25" s="0">
         <v>749.99999552965164</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.59709490743</v>
+        <v>738157.59709490743</v>
       </c>
       <c r="C26" s="0">
         <v>778.99999916553497</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.59743055562</v>
+        <v>738157.59743055562</v>
       </c>
       <c r="C27" s="0">
         <v>808.0000028014183</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.59777777782</v>
+        <v>738157.59777777782</v>
       </c>
       <c r="C28" s="0">
         <v>838.00000101327896</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.59812500002</v>
+        <v>738157.59812500002</v>
       </c>
       <c r="C29" s="0">
         <v>867.99999922513962</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.59848379635</v>
+        <v>738157.59848379635</v>
       </c>
       <c r="C30" s="0">
         <v>899.00000207126141</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.59883101855</v>
+        <v>738157.59883101855</v>
       </c>
       <c r="C31" s="0">
         <v>929.00000028312206</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.59922453703</v>
+        <v>738157.59922453703</v>
       </c>
       <c r="C32" s="0">
         <v>962.99999691545963</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.59957175923</v>
+        <v>738157.59957175923</v>
       </c>
       <c r="C33" s="0">
         <v>992.99999512732029</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.59989583329</v>
+        <v>738157.59989583329</v>
       </c>
       <c r="C34" s="0">
         <v>1020.9999941289425</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.60021990736</v>
+        <v>738157.60021990736</v>
       </c>
       <c r="C35" s="0">
         <v>1048.9999931305647</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.60055555555</v>
+        <v>738157.60055555555</v>
       </c>
       <c r="C36" s="0">
         <v>1077.999996766448</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.60091435187</v>
+        <v>738157.60091435187</v>
       </c>
       <c r="C37" s="0">
         <v>1108.9999996125698</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.6012731482</v>
+        <v>738157.6012731482</v>
       </c>
       <c r="C38" s="0">
         <v>1140.0000024586916</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.60164351854</v>
+        <v>738157.60164351854</v>
       </c>
       <c r="C39" s="0">
         <v>1171.9999998807907</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.60196759261</v>
+        <v>738157.60196759261</v>
       </c>
       <c r="C40" s="0">
         <v>1199.9999988824129</v>
